--- a/MPTrx/_IDP.xlsx
+++ b/MPTrx/_IDP.xlsx
@@ -119,9 +119,6 @@
     <t>accAllowedRoles</t>
   </si>
   <si>
-    <t>autoLoginAccount</t>
-  </si>
-  <si>
     <t>Account</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
   </si>
   <si>
     <t>Acc_5</t>
+  </si>
+  <si>
+    <t>accAutoLoginReq</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,7 +728,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
@@ -773,10 +773,10 @@
         <v>Overheid</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
@@ -827,7 +827,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>15</v>
@@ -838,72 +838,72 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -926,18 +926,18 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>12</v>
@@ -946,24 +946,24 @@
         <v>5</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="D22" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>8</v>
@@ -975,16 +975,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="D23" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>0</v>
@@ -992,16 +992,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>1</v>
@@ -1009,93 +1009,93 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/MPTrx/_IDP.xlsx
+++ b/MPTrx/_IDP.xlsx
@@ -128,9 +128,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>[Role,]</t>
-  </si>
-  <si>
     <t>tinus.otto@tno.nl</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
   </si>
   <si>
     <t>accAutoLoginReq</t>
+  </si>
+  <si>
+    <t>Role</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,7 +728,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
@@ -773,10 +773,10 @@
         <v>Overheid</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
@@ -827,7 +827,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>15</v>
@@ -838,72 +838,72 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -926,7 +926,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -946,7 +946,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>23</v>
@@ -954,16 +954,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="D22" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>8</v>
@@ -975,16 +975,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="D23" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>0</v>
@@ -992,16 +992,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>1</v>
@@ -1009,93 +1009,93 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/MPTrx/_IDP.xlsx
+++ b/MPTrx/_IDP.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3008DFB3-17C8-4DBB-B7FC-E886E03AE1BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="13800" windowHeight="5472" tabRatio="703"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIAM" sheetId="18" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G20" authorId="0">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
   <si>
     <t>PGGM</t>
   </si>
@@ -56,30 +67,18 @@
     <t>RDW</t>
   </si>
   <si>
-    <t>[Org (afko)]</t>
-  </si>
-  <si>
-    <t>orgAbbrName</t>
-  </si>
-  <si>
     <t>orgFullName</t>
   </si>
   <si>
     <t>Organization</t>
   </si>
   <si>
-    <t>OrgAbbrName</t>
-  </si>
-  <si>
     <t>OrgFullName</t>
   </si>
   <si>
     <t>TNO</t>
   </si>
   <si>
-    <t>[PersonRegistration]</t>
-  </si>
-  <si>
     <t>personFirstName</t>
   </si>
   <si>
@@ -110,21 +109,12 @@
     <t>accPassword</t>
   </si>
   <si>
-    <t>accPerson</t>
-  </si>
-  <si>
-    <t>accOrg</t>
-  </si>
-  <si>
     <t>accAllowedRoles</t>
   </si>
   <si>
     <t>Account</t>
   </si>
   <si>
-    <t>UserID</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -152,9 +142,6 @@
     <t>Pieter-Gerard</t>
   </si>
   <si>
-    <t>Groot Middelveld</t>
-  </si>
-  <si>
     <t>polisadm@pggm.nl</t>
   </si>
   <si>
@@ -167,18 +154,12 @@
     <t>cs12345@gmail.com</t>
   </si>
   <si>
-    <t>API</t>
-  </si>
-  <si>
     <t>Overheid</t>
   </si>
   <si>
     <t>Staat der Nederlanden</t>
   </si>
   <si>
-    <t>DigiD</t>
-  </si>
-  <si>
     <t>digid@overheid.nl</t>
   </si>
   <si>
@@ -194,59 +175,137 @@
     <t>d.rijder@gmail.com</t>
   </si>
   <si>
-    <t>person0</t>
-  </si>
-  <si>
-    <t>person1</t>
-  </si>
-  <si>
-    <t>person2</t>
-  </si>
-  <si>
-    <t>person3</t>
-  </si>
-  <si>
-    <t>person4</t>
-  </si>
-  <si>
-    <t>person5</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Acc_0</t>
-  </si>
-  <si>
-    <t>Acc_1</t>
-  </si>
-  <si>
     <t>*****</t>
   </si>
   <si>
-    <t>Acc_2</t>
-  </si>
-  <si>
-    <t>Acc_3</t>
-  </si>
-  <si>
-    <t>Acc_4</t>
-  </si>
-  <si>
-    <t>Acc_5</t>
-  </si>
-  <si>
     <t>accAutoLoginReq</t>
   </si>
   <si>
     <t>Role</t>
+  </si>
+  <si>
+    <t>personRef</t>
+  </si>
+  <si>
+    <t>personMiddleName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>[Persons]</t>
+  </si>
+  <si>
+    <t>[Organizations]</t>
+  </si>
+  <si>
+    <t>orgRef</t>
+  </si>
+  <si>
+    <t>OrgRef</t>
+  </si>
+  <si>
+    <t>accActor</t>
+  </si>
+  <si>
+    <t>accParty</t>
+  </si>
+  <si>
+    <t>Userid</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Org_TNO</t>
+  </si>
+  <si>
+    <t>Org_PGGM</t>
+  </si>
+  <si>
+    <t>Org_RDW</t>
+  </si>
+  <si>
+    <t>Org_Overheid</t>
+  </si>
+  <si>
+    <t>Tinus Otto</t>
+  </si>
+  <si>
+    <t>Pieter-Gerard Groot Middelveld</t>
+  </si>
+  <si>
+    <t>Rijk de Wachter</t>
+  </si>
+  <si>
+    <t>Connie Sument</t>
+  </si>
+  <si>
+    <t>Dik Rijder</t>
+  </si>
+  <si>
+    <t>[Actors]</t>
+  </si>
+  <si>
+    <t>ActorRef</t>
+  </si>
+  <si>
+    <t>actorRef</t>
+  </si>
+  <si>
+    <t>isOwnedBy</t>
+  </si>
+  <si>
+    <t>ownerRef</t>
+  </si>
+  <si>
+    <t>PartyRef</t>
+  </si>
+  <si>
+    <t>digid-server</t>
+  </si>
+  <si>
+    <t>Prs_ConnieSument</t>
+  </si>
+  <si>
+    <t>Prs_DikRijder</t>
+  </si>
+  <si>
+    <t>Prs_TinusOtto</t>
+  </si>
+  <si>
+    <t>Prs_Rijkde Wachter</t>
+  </si>
+  <si>
+    <t>Actor_digid-server</t>
+  </si>
+  <si>
+    <t>[Account Roles]</t>
+  </si>
+  <si>
+    <t>accIsGodAccount</t>
+  </si>
+  <si>
+    <t>Groot</t>
+  </si>
+  <si>
+    <t>Middelveld</t>
+  </si>
+  <si>
+    <t>Prs_Pieter-GerardGrootMiddelveld</t>
+  </si>
+  <si>
+    <t>PersonRef</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,13 +316,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -289,8 +341,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,12 +371,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -317,14 +388,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -347,17 +434,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+  <cellStyles count="5">
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -381,6 +472,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -429,7 +523,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,9 +556,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,6 +608,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -672,450 +800,552 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" style="4" customWidth="1"/>
-    <col min="4" max="5" width="13.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="str">
-        <f>IF($B3="","",$B3)</f>
-        <v>TNO</v>
+        <f>IF($B3="","",CONCATENATE("Org_",$B3))</f>
+        <v>Org_TNO</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="str">
-        <f t="shared" ref="A4:A8" si="0">IF($B4="","",$B4)</f>
-        <v>PGGM</v>
+        <f t="shared" ref="A4:A7" si="0">IF($B4="","",CONCATENATE("Org_",$B4))</f>
+        <v>Org_PGGM</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>RDW</v>
+        <v>Org_RDW</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>Overheid</v>
+        <v>Org_Overheid</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="str">
-        <f t="shared" si="0"/>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="str">
+        <f>IF($C10="","",CONCATENATE("Prs_",$C10,$D10,$E10))</f>
+        <v>Prs_TinusOtto</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="str">
+        <f t="shared" ref="A11:A15" si="1">IF($C11="","",CONCATENATE("Prs_",$C11,$D11,$E11))</f>
+        <v>Prs_Pieter-GerardGrootMiddelveld</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Prs_Rijkde Wachter</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Prs_ConnieSument</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Prs_DikRijder</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7" t="s">
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="str">
+        <f>IF($B18="","",CONCATENATE("Actor_",$B18))</f>
+        <v>Actor_digid-server</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="str">
+        <f>IF($B19="","",CONCATENATE("Actor_",$B19))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="C20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="E20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="str">
+        <f>IF($B22="","",CONCATENATE("Acc_",$B22))</f>
+        <v>Acc_tinus.otto@tno.nl</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <f>$A22</f>
+        <v>Acc_tinus.otto@tno.nl</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="str">
+        <f t="shared" ref="A23:A28" si="2">IF($B23="","",CONCATENATE("Acc_",$B23))</f>
+        <v>Acc_polisadm@pggm.nl</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Acc_rijkdw@rdw.nl</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Acc_digid@overheid.nl</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Acc_cs12345@gmail.com</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Acc_d.rijder@gmail.com</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="D29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="4" t="str">
+      <c r="B30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="str">
         <f>$A22</f>
-        <v>Acc_0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>54</v>
+        <v>Acc_tinus.otto@tno.nl</v>
+      </c>
+      <c r="B31" s="4" t="str">
+        <f>$A31</f>
+        <v>Acc_tinus.otto@tno.nl</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="str">
+        <f t="shared" ref="A32:A37" si="3">$A23</f>
+        <v>Acc_polisadm@pggm.nl</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Acc_rijkdw@rdw.nl</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Acc_digid@overheid.nl</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Acc_cs12345@gmail.com</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Acc_d.rijder@gmail.com</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C23:C31">
+  <conditionalFormatting sqref="C23:C27">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"*****"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:C31">
+  <conditionalFormatting sqref="C23:C27">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(C23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1"/>
-    <hyperlink ref="B25" r:id="rId2"/>
-    <hyperlink ref="B23" r:id="rId3"/>
-    <hyperlink ref="B24" r:id="rId4"/>
-    <hyperlink ref="B26" r:id="rId5"/>
-    <hyperlink ref="B27" r:id="rId6"/>
+    <hyperlink ref="B22" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B25" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B23" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B26" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B27" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>

--- a/MPTrx/_IDP.xlsx
+++ b/MPTrx/_IDP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3008DFB3-17C8-4DBB-B7FC-E886E03AE1BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200B3946-5BF5-460F-B685-DEDBA4593351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIAM" sheetId="18" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
   <si>
     <t>PGGM</t>
   </si>
@@ -299,6 +299,21 @@
   </si>
   <si>
     <t>PersonRef</t>
+  </si>
+  <si>
+    <t>AccountMgr</t>
+  </si>
+  <si>
+    <t>PersonMgr</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>OrganizationMgr</t>
+  </si>
+  <si>
+    <t>ExcelImporter</t>
   </si>
 </sst>
 </file>
@@ -803,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1291,41 +1306,77 @@
         <f>$A31</f>
         <v>Acc_tinus.otto@tno.nl</v>
       </c>
+      <c r="C31" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="str">
         <f t="shared" ref="A32:A37" si="3">$A23</f>
         <v>Acc_polisadm@pggm.nl</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Acc_rijkdw@rdw.nl</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Acc_digid@overheid.nl</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Acc_cs12345@gmail.com</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C35" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Acc_d.rijder@gmail.com</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C36" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/MPTrx/_IDP.xlsx
+++ b/MPTrx/_IDP.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200B3946-5BF5-460F-B685-DEDBA4593351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342B0FD6-3787-4340-8B5D-85430D89C3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46188" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2796" yWindow="1236" windowWidth="17280" windowHeight="9072" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIAM" sheetId="18" r:id="rId1"/>
@@ -256,12 +256,6 @@
     <t>actorRef</t>
   </si>
   <si>
-    <t>isOwnedBy</t>
-  </si>
-  <si>
-    <t>ownerRef</t>
-  </si>
-  <si>
     <t>PartyRef</t>
   </si>
   <si>
@@ -314,6 +308,12 @@
   </si>
   <si>
     <t>ExcelImporter</t>
+  </si>
+  <si>
+    <t>ownerRef[AorP*PartyRef]</t>
+  </si>
+  <si>
+    <t>isOwnedBy[AorP*Party]</t>
   </si>
 </sst>
 </file>
@@ -818,15 +818,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.44140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" style="4" customWidth="1"/>
@@ -949,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
@@ -989,10 +989,10 @@
         <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1054,10 +1054,10 @@
         <v>64</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1073,7 +1073,7 @@
         <v>52</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1084,7 +1084,7 @@
         <v>Actor_digid-server</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>56</v>
@@ -1151,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>53</v>
@@ -1173,7 +1173,7 @@
         <v>38</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>54</v>
@@ -1191,7 +1191,7 @@
         <v>38</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>55</v>
@@ -1209,7 +1209,7 @@
         <v>38</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>56</v>
@@ -1227,10 +1227,10 @@
         <v>38</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1245,10 +1245,10 @@
         <v>38</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1259,10 +1259,10 @@
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>16</v>
@@ -1307,7 +1307,7 @@
         <v>Acc_tinus.otto@tno.nl</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1316,10 +1316,10 @@
         <v>Acc_polisadm@pggm.nl</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1328,10 +1328,10 @@
         <v>Acc_rijkdw@rdw.nl</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1340,16 +1340,16 @@
         <v>Acc_digid@overheid.nl</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1358,7 +1358,7 @@
         <v>Acc_cs12345@gmail.com</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1367,7 +1367,7 @@
         <v>Acc_d.rijder@gmail.com</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1376,7 +1376,7 @@
         <v/>
       </c>
       <c r="C37" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
